--- a/xtt_demo/ZXXT_DEMO_150_T.XLSX
+++ b/xtt_demo/ZXXT_DEMO_150_T.XLSX
@@ -11,69 +11,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
-  <si>
-    <t>Depart.city</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Arrival city</t>
-  </si>
-  <si>
-    <t>Airline</t>
-  </si>
-  <si>
-    <t>Flight Number</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Departure</t>
-  </si>
-  <si>
-    <t>Arrival Time</t>
-  </si>
-  <si>
-    <t>Airfare</t>
-  </si>
-  <si>
-    <t>Max. capacity econ.</t>
-  </si>
-  <si>
-    <t>Occupied econ.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Group flights by Departure - Arrival</t>
   </si>
   <si>
-    <t>{R;level=2}{R-CITYFROM}</t>
-  </si>
-  <si>
-    <t>{R-LANDXFROM}</t>
-  </si>
-  <si>
-    <t>{R-CITYTO}</t>
-  </si>
-  <si>
-    <t>{R-LANDXTO}</t>
-  </si>
-  <si>
-    <t>{R-CARRNAME}</t>
-  </si>
-  <si>
-    <t>{R-CONNID}</t>
-  </si>
-  <si>
-    <t>{R-FLDATE}</t>
-  </si>
-  <si>
-    <t>{R-DEPTIME}</t>
-  </si>
-  <si>
-    <t>{R-ARRTIME}</t>
+    <t/>
+  </si>
+  <si>
+    <t>{R;level=2}{R-_GROUP1}</t>
   </si>
   <si>
     <t>{R-PRICE;func=SUM}</t>
@@ -85,13 +31,7 @@
     <t>{R-SEATSOCC;func=SUM}</t>
   </si>
   <si>
-    <t>{R-_GROUP1}</t>
-  </si>
-  <si>
-    <t>{R;level=1}Totals by {R-_GROUP1}</t>
-  </si>
-  <si>
-    <t/>
+    <t>{R;level=1}Totals by {R-_GROUP1}{R-_GROUP1;func=FIRST}</t>
   </si>
   <si>
     <t>{R-PRICE;func=SUM}</t>
@@ -101,9 +41,6 @@
   </si>
   <si>
     <t>{R-SEATSOCC;func=SUM}</t>
-  </si>
-  <si>
-    <t>{R-_GROUP1;func=FIRST}</t>
   </si>
   <si>
     <t>{R;level=0}Grand totals</t>
@@ -122,9 +59,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy;@"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -304,7 +239,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="general" vertical="top" wrapText="0"/>
     </xf>
@@ -315,23 +250,14 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1"/>
-    <xf numFmtId="46" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="7" borderId="7" xfId="0" applyFill="1"/>
-    <xf numFmtId="46" fontId="2" fillId="7" borderId="7" xfId="0" applyFill="1"/>
     <xf numFmtId="4" fontId="2" fillId="7" borderId="7" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFill="1"/>
+    <xf numFmtId="4" fontId="2" fillId="7" borderId="6" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="8" borderId="7" xfId="0" applyFill="1"/>
-    <xf numFmtId="46" fontId="2" fillId="8" borderId="7" xfId="0" applyFill="1"/>
     <xf numFmtId="4" fontId="2" fillId="8" borderId="7" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFill="1"/>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="6" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -347,7 +273,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1"/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView rightToLeft="0" tabSelected="1" workbookViewId="0">
       <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1"/>
@@ -356,19 +282,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" bestFit="1" width="33" customWidth="1"/>
-    <col min="2" max="2" bestFit="1" width="14" customWidth="1"/>
-    <col min="3" max="3" bestFit="1" width="14" customWidth="1"/>
-    <col min="4" max="4" bestFit="1" width="12" customWidth="1"/>
-    <col min="5" max="5" bestFit="1" width="13" customWidth="1"/>
-    <col min="6" max="6" bestFit="1" width="15" customWidth="1"/>
-    <col min="7" max="7" bestFit="1" width="11" customWidth="1"/>
-    <col min="8" max="8" bestFit="1" width="12" customWidth="1"/>
-    <col min="9" max="9" bestFit="1" width="14" customWidth="1"/>
-    <col min="10" max="10" bestFit="1" width="19" customWidth="1"/>
-    <col min="11" max="11" bestFit="1" width="22" customWidth="1"/>
-    <col min="12" max="12" bestFit="1" width="22" customWidth="1"/>
-    <col min="13" max="13" bestFit="1" width="38" customWidth="1"/>
+    <col min="1" max="1" bestFit="1" width="55" customWidth="1"/>
+    <col min="2" max="2" bestFit="1" width="19" customWidth="1"/>
+    <col min="3" max="3" bestFit="1" width="22" customWidth="1"/>
+    <col min="4" max="4" bestFit="1" width="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -379,39 +296,12 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" t="inlineStr">
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="inlineStr">
         <is>
           <t>{R;group=_GROUP1}</t>
         </is>
@@ -419,125 +309,44 @@
     </row>
     <row r="2" outlineLevel="2">
       <c r="A2" s="5" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>24</v>
+        <v>4</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" outlineLevel="1">
-      <c r="A3" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" s="16" t="s">
-        <v>30</v>
+      <c r="A3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="L4" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="M4" s="22" t="s">
-        <v>26</v>
+      <c r="A4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
